--- a/input/PersonalDetails.xlsx
+++ b/input/PersonalDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Shalini\MobileAutomation\Mobile Automation _talntx\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AE0839-6DB7-4C9C-A49F-F277DE60EB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B017D0-55E9-4202-8F87-BFC387BA423A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{27BC8E43-4EB6-4ED1-99D6-D7D447CC3B0C}"/>
   </bookViews>
@@ -38,12 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>BloodGroup</t>
-  </si>
-  <si>
-    <t>A+ve</t>
-  </si>
-  <si>
     <t>Ram</t>
   </si>
   <si>
@@ -72,6 +66,12 @@
   </si>
   <si>
     <t>Mobile Automation _talntx\src\test\Files\one.jpg</t>
+  </si>
+  <si>
+    <t>B+ve</t>
+  </si>
+  <si>
+    <t>Bloodgroup</t>
   </si>
 </sst>
 </file>
@@ -116,10 +116,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -458,58 +460,59 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="30.140625" customWidth="1"/>
     <col min="6" max="6" width="54.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>